--- a/klassegr/klassegrenser_NQI1.xlsx
+++ b/klassegr/klassegrenser_NQI1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D573230-28E2-477D-964A-AEBF830DDB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BD7690-2FC0-4E7B-9C16-AC11A1A65BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>0.9</v>
       </c>
       <c r="I2">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>0.9</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,7 +622,7 @@
         <v>0.9</v>
       </c>
       <c r="I4">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>0.86</v>
       </c>
       <c r="I5">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,7 +680,7 @@
         <v>0.94</v>
       </c>
       <c r="I6">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,7 +709,7 @@
         <v>0.94</v>
       </c>
       <c r="I7">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -738,7 +738,7 @@
         <v>0.9</v>
       </c>
       <c r="I8">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
         <v>0.9</v>
       </c>
       <c r="I9">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>0.9</v>
       </c>
       <c r="I10">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -825,7 +825,7 @@
         <v>0.9</v>
       </c>
       <c r="I11">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -854,7 +854,7 @@
         <v>0.9</v>
       </c>
       <c r="I12">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>0.9</v>
       </c>
       <c r="I13">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -912,7 +912,7 @@
         <v>0.9</v>
       </c>
       <c r="I14">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,7 +941,7 @@
         <v>0.9</v>
       </c>
       <c r="I15">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -970,7 +970,7 @@
         <v>0.9</v>
       </c>
       <c r="I16">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -999,7 +999,7 @@
         <v>0.9</v>
       </c>
       <c r="I17">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,7 +1028,7 @@
         <v>0.9</v>
       </c>
       <c r="I18">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1057,7 +1057,7 @@
         <v>0.91</v>
       </c>
       <c r="I19">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,7 +1086,7 @@
         <v>0.91</v>
       </c>
       <c r="I20">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
         <v>0.9</v>
       </c>
       <c r="I21">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1144,7 +1144,7 @@
         <v>0.9</v>
       </c>
       <c r="I22">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,7 +1173,7 @@
         <v>0.9</v>
       </c>
       <c r="I23">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>0.91</v>
       </c>
       <c r="I24">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1231,7 +1231,7 @@
         <v>0.91</v>
       </c>
       <c r="I25">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1260,7 +1260,7 @@
         <v>0.9</v>
       </c>
       <c r="I26">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1289,7 +1289,7 @@
         <v>0.9</v>
       </c>
       <c r="I27">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1318,7 +1318,7 @@
         <v>0.9</v>
       </c>
       <c r="I28">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,7 +1347,7 @@
         <v>0.9</v>
       </c>
       <c r="I29">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>0.9</v>
       </c>
       <c r="I30">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
     </row>
   </sheetData>

--- a/klassegr/klassegrenser_NQI1.xlsx
+++ b/klassegr/klassegrenser_NQI1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BD7690-2FC0-4E7B-9C16-AC11A1A65BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5A5F8-E988-42C7-A51F-A92C483A1876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,9 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -564,7 +562,7 @@
         <v>0.9</v>
       </c>
       <c r="I2">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -593,7 +591,7 @@
         <v>0.9</v>
       </c>
       <c r="I3">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -622,7 +620,7 @@
         <v>0.9</v>
       </c>
       <c r="I4">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -651,7 +649,7 @@
         <v>0.86</v>
       </c>
       <c r="I5">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -680,7 +678,7 @@
         <v>0.94</v>
       </c>
       <c r="I6">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -709,7 +707,7 @@
         <v>0.94</v>
       </c>
       <c r="I7">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -738,7 +736,7 @@
         <v>0.9</v>
       </c>
       <c r="I8">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,7 +765,7 @@
         <v>0.9</v>
       </c>
       <c r="I9">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -796,7 +794,7 @@
         <v>0.9</v>
       </c>
       <c r="I10">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -825,7 +823,7 @@
         <v>0.9</v>
       </c>
       <c r="I11">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -854,7 +852,7 @@
         <v>0.9</v>
       </c>
       <c r="I12">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,7 +881,7 @@
         <v>0.9</v>
       </c>
       <c r="I13">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -912,7 +910,7 @@
         <v>0.9</v>
       </c>
       <c r="I14">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -941,7 +939,7 @@
         <v>0.9</v>
       </c>
       <c r="I15">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -970,7 +968,7 @@
         <v>0.9</v>
       </c>
       <c r="I16">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -999,7 +997,7 @@
         <v>0.9</v>
       </c>
       <c r="I17">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1028,7 +1026,7 @@
         <v>0.9</v>
       </c>
       <c r="I18">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1057,7 +1055,7 @@
         <v>0.91</v>
       </c>
       <c r="I19">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,7 +1084,7 @@
         <v>0.91</v>
       </c>
       <c r="I20">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1115,7 +1113,7 @@
         <v>0.9</v>
       </c>
       <c r="I21">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1144,7 +1142,7 @@
         <v>0.9</v>
       </c>
       <c r="I22">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1173,7 +1171,7 @@
         <v>0.9</v>
       </c>
       <c r="I23">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1202,7 +1200,7 @@
         <v>0.91</v>
       </c>
       <c r="I24">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1231,7 +1229,7 @@
         <v>0.91</v>
       </c>
       <c r="I25">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1260,7 +1258,7 @@
         <v>0.9</v>
       </c>
       <c r="I26">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1289,7 +1287,7 @@
         <v>0.9</v>
       </c>
       <c r="I27">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1318,7 +1316,7 @@
         <v>0.9</v>
       </c>
       <c r="I28">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1347,7 +1345,7 @@
         <v>0.9</v>
       </c>
       <c r="I29">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1376,7 +1374,7 @@
         <v>0.9</v>
       </c>
       <c r="I30">
-        <v>1.08</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/klassegr/klassegrenser_NQI1.xlsx
+++ b/klassegr/klassegrenser_NQI1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\ecRxiv_vann\indicators\NO_WXXX_999\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF5A5F8-E988-42C7-A51F-A92C483A1876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EB9682-ACDC-45F1-87CD-121373A64292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,30 +41,6 @@
     <t>typ</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>SD_nedre</t>
-  </si>
-  <si>
-    <t>SD_D</t>
-  </si>
-  <si>
-    <t>D_M</t>
-  </si>
-  <si>
-    <t>M_G</t>
-  </si>
-  <si>
-    <t>G_SG</t>
-  </si>
-  <si>
-    <t>SG_øvre</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -150,6 +126,30 @@
   </si>
   <si>
     <t>CB5</t>
+  </si>
+  <si>
+    <t>pess</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
 </sst>
 </file>
@@ -205,9 +205,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -245,7 +245,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -351,7 +351,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -503,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -512,33 +514,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -567,7 +569,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -596,7 +598,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -625,7 +627,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -654,7 +656,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -683,7 +685,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -712,7 +714,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -741,7 +743,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -770,7 +772,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -799,7 +801,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -828,7 +830,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -857,7 +859,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -886,7 +888,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -915,7 +917,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -944,7 +946,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -973,7 +975,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1002,7 +1004,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1031,7 +1033,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1060,7 +1062,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1089,7 +1091,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1118,7 +1120,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1147,7 +1149,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1176,7 +1178,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1205,7 +1207,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1234,7 +1236,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1263,7 +1265,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1292,7 +1294,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1321,7 +1323,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1350,7 +1352,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>0</v>
